--- a/Letras.xlsx
+++ b/Letras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESTUDIO_SEMESTRE\2025-1\digi3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4661BE2F-0261-444A-A5C9-30E493475D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECEAF85-3116-425F-B696-FD48B834E47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DDAE96FA-C840-4577-AB75-1B831CCCCF5A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>DEDO 2</t>
   </si>
@@ -254,12 +254,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -278,60 +293,60 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +693,6 @@
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="11"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -709,22 +723,22 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="25">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
         <v>11111</v>
       </c>
       <c r="I2">
@@ -754,7 +768,7 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <v>10000</v>
       </c>
       <c r="I3">
@@ -781,7 +795,7 @@
       <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>10000</v>
       </c>
       <c r="I4">
@@ -808,7 +822,7 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="4">
         <v>10111</v>
       </c>
       <c r="I5">
@@ -838,7 +852,7 @@
       <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="8">
         <v>1111</v>
       </c>
       <c r="I6">
@@ -865,7 +879,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7">
         <v>1000</v>
       </c>
       <c r="I7">
@@ -895,7 +909,7 @@
       <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="7">
         <v>111</v>
       </c>
       <c r="I8">
@@ -925,7 +939,7 @@
       <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="1">
         <v>11</v>
       </c>
       <c r="I9">
@@ -952,7 +966,7 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="2">
         <v>11110</v>
       </c>
       <c r="I10">
@@ -982,7 +996,7 @@
       <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="2">
         <v>11110</v>
       </c>
       <c r="I11">
@@ -1009,7 +1023,7 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="1">
         <v>11</v>
       </c>
       <c r="I12">
@@ -1036,7 +1050,7 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="7">
         <v>111</v>
       </c>
       <c r="I13">
@@ -1066,7 +1080,7 @@
       <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="5">
         <v>10001</v>
       </c>
       <c r="I14">
@@ -1093,7 +1107,7 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="3">
         <v>10011</v>
       </c>
       <c r="I15">
@@ -1123,7 +1137,7 @@
       <c r="G16" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="3">
         <v>10011</v>
       </c>
       <c r="I16">
@@ -1135,25 +1149,25 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="22">
-        <v>1</v>
-      </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
         <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="11">
         <v>11111</v>
       </c>
       <c r="I17">
@@ -1180,7 +1194,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18">
         <v>10100</v>
       </c>
       <c r="I18">
@@ -1207,7 +1221,7 @@
       <c r="F19" s="10">
         <v>0</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="10">
         <v>0</v>
       </c>
       <c r="I19">
@@ -1234,7 +1248,7 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20">
         <v>1011</v>
       </c>
       <c r="I20">
@@ -1264,7 +1278,7 @@
       <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="4">
         <v>10111</v>
       </c>
       <c r="I21">
@@ -1291,7 +1305,7 @@
       <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="8">
         <v>1111</v>
       </c>
       <c r="I22">
@@ -1318,7 +1332,7 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23">
         <v>110</v>
       </c>
       <c r="I23">
@@ -1348,7 +1362,7 @@
       <c r="G24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="3">
         <v>10011</v>
       </c>
       <c r="I24">
@@ -1375,7 +1389,7 @@
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="5">
         <v>10001</v>
       </c>
       <c r="I25">
@@ -1405,7 +1419,7 @@
       <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="6">
         <v>1110</v>
       </c>
       <c r="I26">
@@ -1432,7 +1446,7 @@
       <c r="F27" s="6">
         <v>0</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="6">
         <v>1110</v>
       </c>
       <c r="I27">
@@ -1459,7 +1473,7 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28">
         <v>11000</v>
       </c>
       <c r="I28">
@@ -1489,7 +1503,7 @@
       <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="10">
         <v>0</v>
       </c>
       <c r="I29">
@@ -1504,842 +1518,815 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C44732-F67F-4562-B323-AE275FCF5DB6}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0</v>
-      </c>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
         <f>BIN2DEC(H2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29">
-        <v>1</v>
-      </c>
-      <c r="E3" s="29">
-        <v>1</v>
-      </c>
-      <c r="F3" s="29">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="19">
         <v>1111</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I29" si="0">BIN2DEC(H3)</f>
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I28" si="0">BIN2DEC(H3)</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29">
-        <v>0</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="29">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="12">
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19">
         <v>1111</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30">
-        <v>0</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1</v>
-      </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="13">
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
         <v>1000</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38">
-        <v>1</v>
-      </c>
-      <c r="C6" s="38">
-        <v>0</v>
-      </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="23">
         <v>10000</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="27">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
         <v>10111</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="31">
-        <v>1</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="B8" s="24">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="25">
         <v>11000</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32">
-        <v>1</v>
-      </c>
-      <c r="C9" s="32">
-        <v>1</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="27">
         <v>11100</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="33">
-        <v>0</v>
-      </c>
-      <c r="C10" s="33">
-        <v>0</v>
-      </c>
-      <c r="D10" s="33">
-        <v>0</v>
-      </c>
-      <c r="E10" s="33">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="33">
-        <v>0</v>
-      </c>
-      <c r="C11" s="33">
-        <v>0</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="32">
-        <v>1</v>
-      </c>
-      <c r="C12" s="32">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32">
-        <v>1</v>
-      </c>
-      <c r="E12" s="32">
-        <v>0</v>
-      </c>
-      <c r="F12" s="32">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="16">
+      <c r="B12" s="26">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27">
         <v>11100</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="31">
-        <v>1</v>
-      </c>
-      <c r="C13" s="31">
-        <v>1</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="15">
+      <c r="B13" s="24">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25">
         <v>11000</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34">
-        <v>0</v>
-      </c>
-      <c r="C14" s="34">
-        <v>1</v>
-      </c>
-      <c r="D14" s="34">
-        <v>1</v>
-      </c>
-      <c r="E14" s="34">
-        <v>1</v>
-      </c>
-      <c r="F14" s="34">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="B14" s="30">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="31">
         <v>1110</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="35">
-        <v>0</v>
-      </c>
-      <c r="C15" s="35">
-        <v>1</v>
-      </c>
-      <c r="D15" s="35">
-        <v>1</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="19">
+      <c r="B15" s="32">
+        <v>0</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="33">
         <v>1100</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="35">
-        <v>0</v>
-      </c>
-      <c r="C16" s="35">
-        <v>1</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="A16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17">
+        <v>1011</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="35">
+        <v>1</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1</v>
+      </c>
+      <c r="D18" s="35">
+        <v>1</v>
+      </c>
+      <c r="E18" s="35">
+        <v>1</v>
+      </c>
+      <c r="F18" s="35">
+        <v>1</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36">
+        <v>11111</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17">
+        <v>10100</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="22">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23">
+        <v>10000</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17">
+        <v>11001</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="32">
+        <v>0</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33">
         <v>1100</v>
       </c>
-      <c r="I16">
+      <c r="I23" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="28">
-        <v>0</v>
-      </c>
-      <c r="C17" s="28">
-        <v>0</v>
-      </c>
-      <c r="D17" s="28">
-        <v>0</v>
-      </c>
-      <c r="E17" s="28">
-        <v>0</v>
-      </c>
-      <c r="F17" s="28">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="30">
+        <v>0</v>
+      </c>
+      <c r="C24" s="30">
+        <v>1</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1</v>
+      </c>
+      <c r="E24" s="30">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31">
+        <v>1110</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="27">
-        <v>0</v>
-      </c>
-      <c r="C18" s="27">
-        <v>1</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="E18" s="27">
-        <v>1</v>
-      </c>
-      <c r="F18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1011</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="36">
-        <v>1</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36">
-        <v>1</v>
-      </c>
-      <c r="E19" s="36">
-        <v>1</v>
-      </c>
-      <c r="F19" s="36">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="20">
+      <c r="B25" s="37">
+        <v>1</v>
+      </c>
+      <c r="C25" s="37">
+        <v>0</v>
+      </c>
+      <c r="D25" s="37">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0</v>
+      </c>
+      <c r="F25" s="37">
+        <v>1</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="38">
+        <v>10001</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="37">
+        <v>1</v>
+      </c>
+      <c r="C26" s="37">
+        <v>0</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0</v>
+      </c>
+      <c r="F26" s="37">
+        <v>1</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38">
+        <v>10001</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17">
+        <v>111</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="35">
+        <v>1</v>
+      </c>
+      <c r="C28" s="35">
+        <v>1</v>
+      </c>
+      <c r="D28" s="35">
+        <v>1</v>
+      </c>
+      <c r="E28" s="35">
+        <v>1</v>
+      </c>
+      <c r="F28" s="35">
+        <v>1</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="36">
         <v>11111</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="27">
-        <v>1</v>
-      </c>
-      <c r="C20" s="27">
-        <v>0</v>
-      </c>
-      <c r="D20" s="27">
-        <v>1</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <v>10100</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="30">
-        <v>0</v>
-      </c>
-      <c r="C21" s="30">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30">
-        <v>0</v>
-      </c>
-      <c r="E21" s="30">
-        <v>0</v>
-      </c>
-      <c r="F21" s="30">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="13">
-        <v>1000</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="38">
-        <v>1</v>
-      </c>
-      <c r="C22" s="38">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38">
-        <v>0</v>
-      </c>
-      <c r="E22" s="38">
-        <v>0</v>
-      </c>
-      <c r="F22" s="38">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="27">
-        <v>1</v>
-      </c>
-      <c r="C23" s="27">
-        <v>1</v>
-      </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11">
-        <v>11001</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="35">
-        <v>0</v>
-      </c>
-      <c r="C24" s="35">
-        <v>1</v>
-      </c>
-      <c r="D24" s="35">
-        <v>1</v>
-      </c>
-      <c r="E24" s="35">
-        <v>0</v>
-      </c>
-      <c r="F24" s="35">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="19">
-        <v>1100</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="34">
-        <v>0</v>
-      </c>
-      <c r="C25" s="34">
-        <v>1</v>
-      </c>
-      <c r="D25" s="34">
-        <v>1</v>
-      </c>
-      <c r="E25" s="34">
-        <v>1</v>
-      </c>
-      <c r="F25" s="34">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="18">
-        <v>1110</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="37">
-        <v>1</v>
-      </c>
-      <c r="C26" s="37">
-        <v>0</v>
-      </c>
-      <c r="D26" s="37">
-        <v>0</v>
-      </c>
-      <c r="E26" s="37">
-        <v>0</v>
-      </c>
-      <c r="F26" s="37">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="21">
-        <v>10001</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="37">
-        <v>1</v>
-      </c>
-      <c r="C27" s="37">
-        <v>0</v>
-      </c>
-      <c r="D27" s="37">
-        <v>0</v>
-      </c>
-      <c r="E27" s="37">
-        <v>0</v>
-      </c>
-      <c r="F27" s="37">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="21">
-        <v>10001</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="27">
-        <v>0</v>
-      </c>
-      <c r="C28" s="27">
-        <v>0</v>
-      </c>
-      <c r="D28" s="27">
-        <v>1</v>
-      </c>
-      <c r="E28" s="27">
-        <v>1</v>
-      </c>
-      <c r="F28" s="27">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11">
-        <v>111</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="36">
-        <v>1</v>
-      </c>
-      <c r="C29" s="36">
-        <v>1</v>
-      </c>
-      <c r="D29" s="36">
-        <v>1</v>
-      </c>
-      <c r="E29" s="36">
-        <v>1</v>
-      </c>
-      <c r="F29" s="36">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="20">
-        <v>11111</v>
-      </c>
-      <c r="I29">
+      <c r="I28" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
